--- a/typesofcells.xlsx
+++ b/typesofcells.xlsx
@@ -86,7 +86,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="3">
+    <row r="3" ht="35.0" customHeight="true">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -113,7 +113,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>45204.475282175925</v>
+        <v>45204.47937709491</v>
       </c>
     </row>
     <row r="7">

--- a/typesofcells.xlsx
+++ b/typesofcells.xlsx
@@ -85,6 +85,9 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="0.13671875" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="3" ht="35.0" customHeight="true">
       <c r="A3" t="s">
@@ -113,7 +116,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>45204.47937709491</v>
+        <v>45204.48240195602</v>
       </c>
     </row>
     <row r="7">

--- a/typesofcells.xlsx
+++ b/typesofcells.xlsx
@@ -86,7 +86,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="0.13671875" customWidth="true"/>
+    <col min="1" max="1" width="19.53125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="3" ht="35.0" customHeight="true">
@@ -116,7 +116,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>45204.48240195602</v>
+        <v>45204.48547071759</v>
       </c>
     </row>
     <row r="7">

--- a/typesofcells.xlsx
+++ b/typesofcells.xlsx
@@ -87,6 +87,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.53125" customWidth="true"/>
+    <col min="2" max="2" width="39.0625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="3" ht="35.0" customHeight="true">
@@ -116,7 +117,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>45204.48547071759</v>
+        <v>45204.48720445602</v>
       </c>
     </row>
     <row r="7">

--- a/typesofcells.xlsx
+++ b/typesofcells.xlsx
@@ -117,7 +117,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>45204.50606702546</v>
+        <v>45204.50693028935</v>
       </c>
     </row>
     <row r="7">

--- a/typesofcells.xlsx
+++ b/typesofcells.xlsx
@@ -117,7 +117,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>45204.57093980324</v>
+        <v>45204.571860104166</v>
       </c>
     </row>
     <row r="7">
